--- a/TA buku/Results/moora/moora-lex.xlsx
+++ b/TA buku/Results/moora/moora-lex.xlsx
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -446,7 +446,7 @@
         <v>-2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -497,16 +497,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,7 +546,7 @@
         <v>-2</v>
       </c>
       <c r="F8">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -577,16 +577,16 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -597,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
